--- a/others/landuse_name.xlsx
+++ b/others/landuse_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisydneyedu-my.sharepoint.com/personal/cyeh0303_uni_sydney_edu_au/Documents/Desktop/R Transportation/R Github Project/NYCU_TDX/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{47C5A227-14EE-4F87-9A7F-389E212884DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0671886B-4305-4B40-B6EF-65A4D8B9CDDD}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{47C5A227-14EE-4F87-9A7F-389E212884DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE943949-1F53-4E40-B33A-91F722AC0439}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="landuse_name" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">landuse_name!$A$1:$C$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">landuse_name!$A$1:$C$177</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="185">
   <si>
     <t>~2015</t>
   </si>
@@ -263,18 +263,6 @@
   </si>
   <si>
     <t>HYDRA_RIVERDITCH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>農業使用土地總數</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1467,6 +1455,56 @@
       </rPr>
       <t>說明</t>
     </r>
+  </si>
+  <si>
+    <t>AREA_SUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016~2019</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>區域總面積</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>農業使用土地總數</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>區域總面積</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1867,7 +1905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2130,6 +2168,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2259,7 +2336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2278,56 +2355,77 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2688,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2704,1916 +2802,1949 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
+      <c r="B2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>81</v>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>83</v>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>84</v>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>86</v>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>88</v>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>89</v>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>92</v>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>96</v>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>97</v>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>98</v>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>99</v>
+      <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>100</v>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>101</v>
+      <c r="B23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>102</v>
+      <c r="B24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>103</v>
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>104</v>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>105</v>
+      <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>106</v>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>108</v>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>109</v>
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
+      <c r="B32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>111</v>
+      <c r="B33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>112</v>
+      <c r="B34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>113</v>
+      <c r="B35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>114</v>
+      <c r="B36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>115</v>
+      <c r="B37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>116</v>
+      <c r="B38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>117</v>
+      <c r="B39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
+      <c r="B40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>119</v>
+      <c r="B41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>120</v>
+      <c r="B42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>121</v>
+      <c r="B43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>122</v>
+      <c r="B44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>123</v>
+      <c r="B45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>124</v>
+      <c r="B46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>125</v>
+      <c r="B47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>126</v>
+      <c r="B48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>127</v>
+      <c r="B49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C119" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="10" t="s">
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="10" t="s">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="10" t="s">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="10" t="s">
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="10" t="s">
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="10" t="s">
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="10" t="s">
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="10" t="s">
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="10" t="s">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="10" t="s">
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="10" t="s">
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="10" t="s">
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="10" t="s">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="10" t="s">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="10" t="s">
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="10" t="s">
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="10" t="s">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="10" t="s">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="10" t="s">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" s="10" t="s">
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="10" t="s">
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="10" t="s">
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="10" t="s">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" s="10" t="s">
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108" s="9" t="s">
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A168" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B168" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C168" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="10" t="s">
+    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C170" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110" s="10" t="s">
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="10" t="s">
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A172" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="10" t="s">
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A174" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A175" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B117" s="12" t="s">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A137" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B138" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B140" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A152" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A153" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A161" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B164" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B166" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A167" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A168" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A173" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A174" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>129</v>
+      <c r="C177" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
